--- a/projectB/vpc_subnet_cidr_ip_details.xlsx
+++ b/projectB/vpc_subnet_cidr_ip_details.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
   <si>
     <t>VPC_CIDR (10.0.0.0/20)</t>
   </si>
@@ -181,6 +181,9 @@
   </si>
   <si>
     <t xml:space="preserve">10.0.13.0/24 </t>
+  </si>
+  <si>
+    <t>useable IP</t>
   </si>
 </sst>
 </file>
@@ -552,7 +555,7 @@
   <dimension ref="A1:I20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -603,6 +606,9 @@
         <v>5</v>
       </c>
       <c r="H3" s="5"/>
+      <c r="I3" s="2" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
@@ -617,6 +623,9 @@
       <c r="G4" s="1">
         <v>256</v>
       </c>
+      <c r="I4" s="2">
+        <v>251</v>
+      </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
@@ -631,6 +640,9 @@
       <c r="G5" s="1">
         <v>256</v>
       </c>
+      <c r="I5" s="2">
+        <v>251</v>
+      </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
@@ -645,6 +657,9 @@
       <c r="G6" s="1">
         <v>256</v>
       </c>
+      <c r="I6" s="2">
+        <v>251</v>
+      </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B7" s="1" t="s">
@@ -659,6 +674,9 @@
       <c r="G7" s="1">
         <v>256</v>
       </c>
+      <c r="I7" s="2">
+        <v>251</v>
+      </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B8" s="1" t="s">
@@ -673,6 +691,9 @@
       <c r="G8" s="1">
         <v>256</v>
       </c>
+      <c r="I8" s="2">
+        <v>251</v>
+      </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B9" s="1" t="s">
@@ -687,6 +708,9 @@
       <c r="G9" s="1">
         <v>256</v>
       </c>
+      <c r="I9" s="2">
+        <v>251</v>
+      </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B10" s="1" t="s">
@@ -701,6 +725,9 @@
       <c r="G10" s="1">
         <v>256</v>
       </c>
+      <c r="I10" s="2">
+        <v>251</v>
+      </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B11" s="1" t="s">
@@ -715,6 +742,9 @@
       <c r="G11" s="1">
         <v>256</v>
       </c>
+      <c r="I11" s="2">
+        <v>251</v>
+      </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B12" s="1" t="s">
@@ -729,6 +759,9 @@
       <c r="G12" s="1">
         <v>256</v>
       </c>
+      <c r="I12" s="2">
+        <v>251</v>
+      </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B13" s="1" t="s">
@@ -743,6 +776,9 @@
       <c r="G13" s="1">
         <v>256</v>
       </c>
+      <c r="I13" s="2">
+        <v>251</v>
+      </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B14" s="1" t="s">
@@ -757,6 +793,9 @@
       <c r="G14" s="1">
         <v>256</v>
       </c>
+      <c r="I14" s="2">
+        <v>251</v>
+      </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B15" s="1" t="s">
@@ -771,6 +810,9 @@
       <c r="G15" s="1">
         <v>256</v>
       </c>
+      <c r="I15" s="2">
+        <v>251</v>
+      </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B16" s="1" t="s">
@@ -785,8 +827,11 @@
       <c r="G16" s="1">
         <v>256</v>
       </c>
-    </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="I16" s="2">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B17" s="1" t="s">
         <v>17</v>
       </c>
@@ -799,8 +844,11 @@
       <c r="G17" s="1">
         <v>256</v>
       </c>
-    </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="I17" s="2">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B18" s="1" t="s">
         <v>18</v>
       </c>
@@ -813,8 +861,11 @@
       <c r="G18" s="1">
         <v>256</v>
       </c>
-    </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="I18" s="2">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B19" s="1" t="s">
         <v>19</v>
       </c>
@@ -827,8 +878,11 @@
       <c r="G19" s="1">
         <v>256</v>
       </c>
-    </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="I19" s="2">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
       <c r="E20" s="3"/>
       <c r="F20" s="3" t="s">
         <v>53</v>
